--- a/subeom/result4.xlsx
+++ b/subeom/result4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subeom\Desktop\교재\2021가을\인소공\Project\CS454-Team-Project\subeom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235C5833-E7C4-4B4A-8C3D-C351AFCA0D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD156803-F0B5-4B4F-98AF-0C7E9D53AE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -136,11 +147,15 @@
     <t>average</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1085,11 +1100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1993,8 +2008,2057 @@
         <v>0.99164525631039668</v>
       </c>
     </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <f>ROUND(B2, 4)</f>
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:AC11" si="1">ROUND(C2, 4)</f>
+        <v>0.86609999999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0.96679999999999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.8115</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0.90010000000000001</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>0.86780000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <f t="shared" ref="B12:AC12" si="2">ROUND(B3, 4)</f>
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0.9224</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.9546</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0.93889999999999996</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="2"/>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="2"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="2"/>
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>0.9355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <f t="shared" ref="B13:AC13" si="3">ROUND(B4, 4)</f>
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0.95979999999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="3"/>
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <f t="shared" ref="B14:AC14" si="4">ROUND(B5, 4)</f>
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>0.97660000000000002</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>0.9677</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>0.98</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="4"/>
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <f t="shared" ref="B15:AC15" si="5">ROUND(B6, 4)</f>
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="5"/>
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0.997</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0.9869</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>0.9899</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>0.9869</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <f t="shared" ref="B16:AC16" si="6">ROUND(B7, 4)</f>
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="6"/>
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>0.9556</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>0.9637</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>0.9758</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>0.9456</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="6"/>
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>0.95520000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <f t="shared" ref="B17:AC17" si="7">ROUND(B8, 4)</f>
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="7"/>
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>0.92579999999999996</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>0.94310000000000005</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>0.94740000000000002</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="7"/>
+        <v>0.96319999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <f t="shared" ref="B18:AC19" si="8">ROUND(B9, 4)</f>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="8"/>
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="8"/>
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="8"/>
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>0.9788</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>0.99229999999999996</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>0.95730000000000004</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="8"/>
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="8"/>
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="8"/>
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="8"/>
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="8"/>
+        <v>0.9607</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="8"/>
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="8"/>
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="8"/>
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="8"/>
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="8"/>
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="8"/>
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="8"/>
+        <v>0.96830000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <f>ROUND(B10, 4)</f>
+        <v>0.99529999999999996</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="8"/>
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="8"/>
+        <v>0.9909</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="8"/>
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>0.998</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>0.9879</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="8"/>
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>0.9879</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="8"/>
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="8"/>
+        <v>0.9899</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>0.9919</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="8"/>
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="8"/>
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="8"/>
+        <v>0.9819</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="8"/>
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="8"/>
+        <v>0.99160000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <f>(1-B$2)/(1-B3)</f>
+        <v>3.5725554454744275</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:AC27" si="9">(1-C$2)/(1-C3)</f>
+        <v>1.7265802474804883</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="9"/>
+        <v>2.2082120208989884</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="9"/>
+        <v>1.5503219971295343</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
+        <v>1.7251883958035654</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="9"/>
+        <v>2.3789816501560352</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>1.8395070104197588</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>1.949415163297739</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>1.5313241054314299</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>2.0389282103134097</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>1.8481424794768286</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="9"/>
+        <v>2.1058669525920717</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="9"/>
+        <v>1.9319181522559676</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>1.915381371305579</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="9"/>
+        <v>1.9200557657837098</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="9"/>
+        <v>2.2934639776038455</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>1.7311150849162114</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="9"/>
+        <v>1.7854399562909293</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>2.0675158817043613</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>2.2796365299355585</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
+        <v>2.1305243215274841</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="9"/>
+        <v>2.4037829564382216</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>1.8666362719498195</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="9"/>
+        <v>2.1183152037640385</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="9"/>
+        <v>2.0492279467971048</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="9"/>
+        <v>2.329031733837601</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="9"/>
+        <v>2.4966480128635102</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="9"/>
+        <v>2.0505378202611646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <f t="shared" ref="B21:Q27" si="10">(1-B$2)/(1-B4)</f>
+        <v>7.0285237997937733</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="10"/>
+        <v>3.7609564800404862</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="10"/>
+        <v>3.7741308793455839</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="10"/>
+        <v>2.1367629070319034</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="10"/>
+        <v>3.4218933177021924</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="10"/>
+        <v>4.355469612633927</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="10"/>
+        <v>2.6653037105761217</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>4.0128187784103009</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>3.1182080728666817</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="10"/>
+        <v>4.0521027702021062</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>4.1388486406481197</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="10"/>
+        <v>3.2580500712395213</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="10"/>
+        <v>4.6092494458296418</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>4.0579455830132636</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="10"/>
+        <v>3.6698134754472771</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="10"/>
+        <v>3.7493140929097009</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="9"/>
+        <v>2.7514691884473614</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="9"/>
+        <v>3.5494904533208413</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>3.9626056384368558</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="9"/>
+        <v>4.6795812168915081</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="9"/>
+        <v>4.190879358548238</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="9"/>
+        <v>4.0740208545269558</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>3.5955238576788129</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="9"/>
+        <v>3.8002630229298631</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="9"/>
+        <v>3.8144564598747821</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="9"/>
+        <v>4.3016672123990194</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="9"/>
+        <v>4.994370995111745</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="9"/>
+        <v>3.8634583208737543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <f t="shared" si="10"/>
+        <v>11.116997985754345</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="9"/>
+        <v>7.9226941168449114</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="9"/>
+        <v>6.3146099452553228</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>3.2728709953934159</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="9"/>
+        <v>5.8895287738029598</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>8.7786920794338297</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="9"/>
+        <v>2.9616321140505812</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="9"/>
+        <v>7.4974302204037651</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="9"/>
+        <v>9.5034370562608235</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>6.2014351614547465</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>5.8675207067917352</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="9"/>
+        <v>7.2513448928046964</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>7.5544501763314953</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="9"/>
+        <v>7.4340732413892496</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="9"/>
+        <v>7.6750258737358692</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>7.2543409183319429</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="9"/>
+        <v>4.2641654365790584</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="9"/>
+        <v>7.1055638456616252</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>8.9783725066294178</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="9"/>
+        <v>8.6239123393553605</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="9"/>
+        <v>8.2162702275215302</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="9"/>
+        <v>7.9740405196872342</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>5.5458911419422865</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="9"/>
+        <v>4.3438209238729302</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="9"/>
+        <v>6.5194552529182781</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="9"/>
+        <v>8.2234422680680357</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="9"/>
+        <v>6.880476975549251</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="9"/>
+        <v>6.84347165575692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <f t="shared" si="10"/>
+        <v>36.873336066234096</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="9"/>
+        <v>12.73507730315484</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>8.7301324503311815</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>3.7382818390109702</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="9"/>
+        <v>7.7184883208458555</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>12.039082186848791</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>3.0889673428843358</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="9"/>
+        <v>15.744990863232106</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="9"/>
+        <v>17.299548084492343</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>8.7565136476407464</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>7.8388857741450026</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>14.41794271302458</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>12.68106343949996</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="9"/>
+        <v>14.529234930901721</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="9"/>
+        <v>11.262383177569541</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="9"/>
+        <v>14.68941542402238</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>5.0989787222559695</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="9"/>
+        <v>12.697980952380005</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>15.382794396172507</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="9"/>
+        <v>16.665770457217</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="9"/>
+        <v>15.50985593624176</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="9"/>
+        <v>13.730810440148323</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="9"/>
+        <v>8.1219717463174774</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="9"/>
+        <v>4.5157121359651313</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="9"/>
+        <v>9.7200870195790916</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="9"/>
+        <v>18.115196782533463</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="9"/>
+        <v>12.410450461790152</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="9"/>
+        <v>10.750023051955814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <f t="shared" si="10"/>
+        <v>4.3632935540983011</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="9"/>
+        <v>2.5959138254354523</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="9"/>
+        <v>2.9952528435602153</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>2.4498071498751379</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="9"/>
+        <v>2.9765139524755266</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>3.3252736516280308</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>3.1814365683939148</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="9"/>
+        <v>2.5919332281180965</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="9"/>
+        <v>3.4268890437412951</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>2.2871764404055979</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>2.9477912537866153</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="9"/>
+        <v>3.0071224435641097</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>3.3984457422306034</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="9"/>
+        <v>3.0742917807898675</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="9"/>
+        <v>2.9563777426823261</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>2.8389028283831057</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="9"/>
+        <v>2.6117052580661748</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="9"/>
+        <v>2.7124158274844912</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>2.9789965703349863</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>3.2087820313794868</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>2.8171078032098835</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>2.7666036285761306</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>2.890681329496497</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="9"/>
+        <v>2.4756381744659057</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="9"/>
+        <v>3.2466997698921771</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="9"/>
+        <v>2.9022399977908195</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="9"/>
+        <v>3.709594130649422</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="9"/>
+        <v>2.9496863233872239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <f t="shared" si="10"/>
+        <v>4.0279853653921673</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="9"/>
+        <v>3.037682962825262</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="9"/>
+        <v>3.288290936821284</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="9"/>
+        <v>3.0880021290176014</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="9"/>
+        <v>3.39182385156208</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>3.990572526683831</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>3.7440623714257169</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="9"/>
+        <v>3.2606263844745551</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="9"/>
+        <v>4.103265185741451</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>3.1688631035274111</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>3.3105643656600043</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="9"/>
+        <v>3.8890271066657056</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>4.2536487152104616</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="9"/>
+        <v>3.9156934425999927</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="9"/>
+        <v>3.3799935068895879</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>3.4580649236954506</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="9"/>
+        <v>3.2315491195203694</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="9"/>
+        <v>2.9923355302610464</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>3.7203177791201845</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>3.6830707532261271</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="9"/>
+        <v>3.4779958177230936</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="9"/>
+        <v>4.0601706335939944</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="9"/>
+        <v>3.3205403149658155</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="9"/>
+        <v>2.8070609997429443</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="9"/>
+        <v>3.7700611467690437</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="9"/>
+        <v>4.412141712458685</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="9"/>
+        <v>4.8812231230454808</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="9"/>
+        <v>3.5957216279731181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <f t="shared" si="10"/>
+        <v>4.437231733564615</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="9"/>
+        <v>4.3114353176443299</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="9"/>
+        <v>4.2565484029438361</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="9"/>
+        <v>3.3699043567693181</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="9"/>
+        <v>4.3325579798836875</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>5.7071422508481735</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>5.9247572044400743</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="9"/>
+        <v>3.6514598864437988</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="9"/>
+        <v>3.8534146361921873</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>4.290877660867932</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>4.4106186109602836</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="9"/>
+        <v>4.6984433185037764</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>5.7192332267403891</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="9"/>
+        <v>3.9735726077165934</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="9"/>
+        <v>4.0231861317219026</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>3.9760878402498756</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="9"/>
+        <v>3.9136521002999345</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="9"/>
+        <v>3.5223497520568374</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>4.0941259267093617</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>4.9130349271248104</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="9"/>
+        <v>4.6563984073667246</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="9"/>
+        <v>4.2294175281997362</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>4.032485761886039</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="9"/>
+        <v>2.9710439892204423</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="9"/>
+        <v>4.8436754694072217</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="9"/>
+        <v>3.4653262942753895</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="9"/>
+        <v>4.903990657206168</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="9"/>
+        <v>4.1666606182428936</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <f t="shared" si="10"/>
+        <v>29.660432585598894</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="9"/>
+        <v>14.49857577128139</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>14.641218547948828</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="9"/>
+        <v>10.020210228257657</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>14.494603810437434</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>21.685988485846789</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>11.413341551644011</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>13.260101561913761</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>17.241923497148957</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>16.662141744179941</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>15.581164557912095</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="9"/>
+        <v>17.97667506531975</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>19.247169491353858</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="9"/>
+        <v>15.689460426559705</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="9"/>
+        <v>15.394564970921438</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>14.287383704237788</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="9"/>
+        <v>12.860253100983678</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="9"/>
+        <v>17.265846442008311</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>17.756098584254904</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>18.772395235331551</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="9"/>
+        <v>17.790176133991935</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>18.041583698991211</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>15.675316327927131</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="9"/>
+        <v>9.4403185425299458</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="9"/>
+        <v>16.864620030195955</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="9"/>
+        <v>16.181371779199129</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="9"/>
+        <v>16.679403647103328</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="9"/>
+        <v>15.823802672889292</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="B2:AC10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:AC20">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:AC21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:AC22">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:AC23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:AC24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:AC25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:AC26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:AC27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
